--- a/result/10_pred.xlsx
+++ b/result/10_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,210 +471,122 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38603109.404</v>
+        <v>38603109.5567</v>
       </c>
       <c r="B5" t="n">
-        <v>3334723.2691</v>
+        <v>3334789.1452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38603109.5567</v>
+        <v>38603143.31380469</v>
       </c>
       <c r="B6" t="n">
-        <v>3334789.1452</v>
+        <v>3334763.735218843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38603177.8875</v>
+        <v>38603140.29948116</v>
       </c>
       <c r="B7" t="n">
-        <v>3334790.1442</v>
+        <v>3334747.034504674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38603167.5892</v>
+        <v>38603160.01451884</v>
       </c>
       <c r="B8" t="n">
-        <v>3334724.2514</v>
+        <v>3334760.720895326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38603139.71905365</v>
+        <v>38603146.3281282</v>
       </c>
       <c r="B9" t="n">
-        <v>3334755.761652198</v>
+        <v>3334780.435933011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38603152.04095221</v>
+        <v>38603176.71523301</v>
       </c>
       <c r="B10" t="n">
-        <v>3334764.315646355</v>
+        <v>3334757.706571809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38603143.48695804</v>
+        <v>38603123.598767</v>
       </c>
       <c r="B11" t="n">
-        <v>3334776.637544909</v>
+        <v>3334750.048828191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38603123.12015802</v>
+        <v>38603106.89805283</v>
       </c>
       <c r="B12" t="n">
-        <v>3334753.368607317</v>
+        <v>3334753.063151707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38603166.75589564</v>
+        <v>38603137.28515765</v>
       </c>
       <c r="B13" t="n">
-        <v>3334756.270744881</v>
+        <v>3334730.333790506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>38603183.35479127</v>
+        <v>38603126.61309052</v>
       </c>
       <c r="B14" t="n">
-        <v>3334758.663789762</v>
+        <v>3334766.749542359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38603141.09391317</v>
+        <v>38603157.00019532</v>
       </c>
       <c r="B15" t="n">
-        <v>3334793.23644054</v>
+        <v>3334744.020181158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38603131.16505949</v>
+        <v>38603129.62741403</v>
       </c>
       <c r="B16" t="n">
-        <v>3334768.083550751</v>
+        <v>3334783.450256527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38603142.11209853</v>
+        <v>38603163.02884236</v>
       </c>
       <c r="B17" t="n">
-        <v>3334739.162756566</v>
+        <v>3334777.421609494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38603138.34419414</v>
+        <v>38603173.7009095</v>
       </c>
       <c r="B18" t="n">
-        <v>3334718.286863855</v>
+        <v>3334741.005857641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38603108.40521459</v>
+        <v>38603189.58707538</v>
       </c>
       <c r="B19" t="n">
-        <v>3334761.413508791</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>38603154.43399708</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3334747.716750723</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>38603155.8088566</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3334785.191539066</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>38603164.36285076</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3334772.869640513</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>38603129.79019998</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3334730.608762409</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>38603110.79825947</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3334744.81461316</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>38603175.30988979</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3334743.948846328</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>38603128.77201461</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3334784.682446383</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>38603150.66609269</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3334726.840858013</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>38603180.96174639</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3334775.262685394</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>38603116.45011606</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3334776.128452226</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38603121.7452985</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3334715.893818974</v>
+        <v>3334781.250481304</v>
       </c>
     </row>
   </sheetData>
